--- a/biology/Zoologie/Colomerus/Colomerus.xlsx
+++ b/biology/Zoologie/Colomerus/Colomerus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colomerus est un genre d'acariens microscopiques de la famille des Eriophyidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Colomerus a été créé en 1971 par Richard Albert Newkirk (d) et Hartford Hammond Keifer (d).
 </t>
@@ -542,9 +556,11 @@
           <t>Liste partielle d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (12 juillet 2021)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (12 juillet 2021) :
 Colomerus codiaeum Keifer, 1979
 Colomerus spathodeae (Carmona, 1967)
 Colomerus vitexi Smith-Meyer &amp; Ueckermann, 1990
@@ -577,7 +593,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Richard A. Newkirk et Hartford H. Keifer, 1971 : « Eriophyid studies C-5. Revision of types of Eriophyes and Phytoptus », p. 1–24.</t>
         </is>
